--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="53">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -147,6 +147,33 @@
   </si>
   <si>
     <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPOGRAPHY NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Przycisk</t>
   </si>
 </sst>
 </file>
@@ -1596,32 +1623,39 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1"/>
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="5" spans="2:10" ht="15" customHeight="1"/>
     <row r="6" spans="2:10"/>
     <row r="7" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="65">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -174,6 +174,42 @@
   </si>
   <si>
     <t xml:space="preserve">Przycisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha! Wr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha! Wroc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha! Wroc!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przyciskb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przyciskbjjhjhkjhkjhkh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt; %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dupa</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1677,7 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
@@ -1650,14 +1686,46 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1"/>
-    <row r="6" spans="2:10"/>
+    <row r="5" spans="2:10" ht="15" customHeight="1">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="7" spans="2:10"/>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7270" uniqueCount="109">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -210,6 +210,138 @@
   </si>
   <si>
     <t xml:space="preserve">Dupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;d&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumpadTextTypography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789</t>
   </si>
 </sst>
 </file>
@@ -1529,6 +1661,24 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
       <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1546,6 +1696,26 @@
       </c>
     </row>
     <row r="8" spans="2:15">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="K8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1561,6 +1731,7 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="2:15">
+      <c r="I9"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1726,19 +1897,261 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:10"/>
-    <row r="8" spans="2:10"/>
-    <row r="9" spans="2:10"/>
-    <row r="10" spans="2:10"/>
-    <row r="13" spans="2:10"/>
-    <row r="14" spans="2:10"/>
-    <row r="15" spans="2:10"/>
-    <row r="16" spans="2:10"/>
-    <row r="17" spans="4:4"/>
-    <row r="18" spans="4:4"/>
-    <row r="19" spans="4:4"/>
-    <row r="20" spans="4:4"/>
-    <row r="21" spans="4:4"/>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="22" spans="4:4"/>
     <row r="23" spans="4:4"/>
     <row r="24" spans="4:4"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7270" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7522" uniqueCount="110">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t xml:space="preserve">0123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000000</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2149,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
         <v>50</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7522" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7642" uniqueCount="110">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -1877,7 +1877,7 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -1894,7 +1894,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1902,16 +1902,16 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -1928,7 +1928,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -1945,7 +1945,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
@@ -1962,7 +1962,7 @@
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -1979,7 +1979,7 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
         <v>50</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -1996,7 +1996,7 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
         <v>50</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
@@ -2013,7 +2013,7 @@
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
         <v>50</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
@@ -2030,7 +2030,7 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
         <v>50</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -2047,7 +2047,7 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
         <v>50</v>
@@ -2055,16 +2055,16 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
         <v>50</v>
@@ -2072,16 +2072,16 @@
     </row>
     <row r="17" spans="4:4">
       <c r="B17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
         <v>50</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="18" spans="4:4">
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -2098,7 +2098,7 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="19" spans="4:4">
       <c r="B19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -2115,7 +2115,7 @@
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
         <v>50</v>
@@ -2123,38 +2123,22 @@
     </row>
     <row r="20" spans="4:4">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="21" spans="4:4"/>
     <row r="22" spans="4:4"/>
     <row r="23" spans="4:4"/>
     <row r="24" spans="4:4"/>
